--- a/biology/Médecine/Jean-H._Dussault/Jean-H._Dussault.xlsx
+++ b/biology/Médecine/Jean-H._Dussault/Jean-H._Dussault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean H. Dussault : médecin et endocrinologue québécois né en 1941 à Québec et mort le 23 mars 2003[1].
-Il fut professeur titulaire dans le service d'endocrinologie-métabolisme du Centre hospitalier de l'Université Laval. Il a mis au point un test de dépistage de l'hypothyroïdie congénitale (crétinisme)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean H. Dussault : médecin et endocrinologue québécois né en 1941 à Québec et mort le 23 mars 2003.
+Il fut professeur titulaire dans le service d'endocrinologie-métabolisme du Centre hospitalier de l'Université Laval. Il a mis au point un test de dépistage de l'hypothyroïdie congénitale (crétinisme).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1980 - Prix Van Meter Award de l'American Thyroid Association
 1982 - Mis en nomination pour le prix Nobel de physiologie ou médecine
